--- a/01-FatSheepCrisis/Assets/Excel/SkillConfig.xlsx
+++ b/01-FatSheepCrisis/Assets/Excel/SkillConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Project\FatSheepCrisis\01-FatSheepCrisis\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39336BFB-B7A4-4FC2-AF32-4FE343B94DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDF4EE6-FB0A-459F-A478-3EF7D1E175C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +92,10 @@
   </si>
   <si>
     <t>范围炸弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷鸟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -423,7 +427,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -687,16 +691,36 @@
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="A8" s="1">
+        <v>4007</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>

--- a/01-FatSheepCrisis/Assets/Excel/SkillConfig.xlsx
+++ b/01-FatSheepCrisis/Assets/Excel/SkillConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Project\FatSheepCrisis\01-FatSheepCrisis\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDF4EE6-FB0A-459F-A478-3EF7D1E175C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAD0225-67DD-44E4-80C4-616B745FB3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +96,10 @@
   </si>
   <si>
     <t>雷鸟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水球</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,7 +431,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -726,16 +730,36 @@
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="A9" s="1">
+        <v>4008</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
